--- a/Datos/Pob2017.xlsx
+++ b/Datos/Pob2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56934\Desktop\Universidad\4to 2do\Espacial\Proyecto-estadistica_espacial-main\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB6B8D9-133A-40DD-A246-8289C600C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6684F9-7BFD-4FA3-AFA1-ADA47D7003BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13455" yWindow="465" windowWidth="13995" windowHeight="14640" xr2:uid="{A631BEA2-088A-4DD9-A826-82D98C67A215}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
         <v>102034</v>
       </c>
       <c r="C38" s="2">
-        <v>3342</v>
+        <v>33342</v>
       </c>
       <c r="D38" s="2">
         <v>9</v>
